--- a/时间管理大师/2022/第三期/2022-10.xlsx
+++ b/时间管理大师/2022/第三期/2022-10.xlsx
@@ -4,26 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一天作记录" sheetId="11" r:id="rId1"/>
     <sheet name="晨间日记" sheetId="13" r:id="rId2"/>
     <sheet name="起床等级划分" sheetId="2" r:id="rId3"/>
-    <sheet name="起床记录统计" sheetId="12" r:id="rId4"/>
-    <sheet name="月报" sheetId="14" r:id="rId5"/>
-    <sheet name="一周记录" sheetId="9" state="hidden" r:id="rId6"/>
-    <sheet name="每天睡觉todo" sheetId="6" state="hidden" r:id="rId7"/>
-    <sheet name="习惯卡" sheetId="8" state="hidden" r:id="rId8"/>
-    <sheet name="2分钟养成一习惯" sheetId="7" state="hidden" r:id="rId9"/>
-    <sheet name="check" sheetId="10" state="hidden" r:id="rId10"/>
-    <sheet name="作息习惯卡woop" sheetId="3" state="hidden" r:id="rId11"/>
-    <sheet name="下班浪费3小时计划 " sheetId="5" state="hidden" r:id="rId12"/>
-    <sheet name="2021年的第 30" sheetId="4" state="hidden" r:id="rId13"/>
-    <sheet name="2021年的第 29 周" sheetId="1" state="hidden" r:id="rId14"/>
+    <sheet name="作息汇总" sheetId="16" r:id="rId4"/>
+    <sheet name="起床记录统计" sheetId="12" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId6"/>
+    <sheet name="月报" sheetId="14" r:id="rId7"/>
+    <sheet name="一周记录" sheetId="9" state="hidden" r:id="rId8"/>
+    <sheet name="每天睡觉todo" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="习惯卡" sheetId="8" state="hidden" r:id="rId10"/>
+    <sheet name="2分钟养成一习惯" sheetId="7" state="hidden" r:id="rId11"/>
+    <sheet name="check" sheetId="10" state="hidden" r:id="rId12"/>
+    <sheet name="作息习惯卡woop" sheetId="3" state="hidden" r:id="rId13"/>
+    <sheet name="下班浪费3小时计划 " sheetId="5" state="hidden" r:id="rId14"/>
+    <sheet name="2021年的第 30" sheetId="4" state="hidden" r:id="rId15"/>
+    <sheet name="2021年的第 29 周" sheetId="1" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">一周记录!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">一周记录!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16881" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16912" uniqueCount="512">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -1867,12 +1869,6 @@
     <t>任务记录</t>
   </si>
   <si>
-    <t>反省</t>
-  </si>
-  <si>
-    <t>打断</t>
-  </si>
-  <si>
     <t>不暂停</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2108,6 +2104,85 @@
   </si>
   <si>
     <t xml:space="preserve">  ✔ 预先承诺 ok</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路设计：根本原因是没有心跳包方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去第三条命</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">21点30准备睡觉 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机远离卧室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">失去一条命 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">失去二条命 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>失控看小说小说到6点</t>
+  </si>
+  <si>
+    <t>失控看小说小说到6点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>失控看小说小说到6点 --手机防卧室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>失控看小说小说到6点 手机防卧室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>抖音录制 方式在提醒不要沉迷不行，因为你在卧室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要走进卧室，躺在床上，你暗示你放弃目标，放弃学习，然后最终看小说视频。环境场太可怕了，手机远离卧室。卧室不是看手机地方。这次突破你防线的是在客厅看小说怕家人发现，结果卧室也是，过去1000次卧室看小说你不心痛，在学习地方看心痛，在教室，在课堂，在光明正大地方 堕落，坚决不在卧室看小说，手机远离卧室。你习惯是 熬夜在床上看小说------不敢是早起 在客厅看小说看电视，改变时间和地方</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄次数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断次数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3487,7 +3562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WRY71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -68035,31 +68110,31 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="97"/>
       <c r="B35" s="91" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C37" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -68082,7 +68157,7 @@
         <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -68091,7 +68166,7 @@
         <v>441</v>
       </c>
       <c r="C42" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -68115,7 +68190,7 @@
     <row r="45" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="105"/>
       <c r="B45" s="77" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C45" t="s">
         <v>407</v>
@@ -68164,10 +68239,10 @@
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="105"/>
       <c r="B51" s="77" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C51" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -68176,10 +68251,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" s="99" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C54" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -68187,52 +68262,52 @@
     </row>
     <row r="56" spans="1:3" ht="324" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="100" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="163.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="100" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="189.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="100" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="100" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C59" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="100" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B61" s="98" t="s">
+        <v>459</v>
+      </c>
+      <c r="C61" t="s">
         <v>461</v>
-      </c>
-      <c r="C61" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B62" s="98" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C62" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -68240,31 +68315,31 @@
     </row>
     <row r="64" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="98" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C64" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="98" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="98" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="98" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="2:2" ht="93" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="2:2" ht="213.75" x14ac:dyDescent="0.2">
       <c r="B71" s="100" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -68287,6 +68362,520 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="85.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.125" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="4" max="4" width="29.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="36"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="36"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="58" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="36"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="149" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="150"/>
+      <c r="B6" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="36"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="150"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="150" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="150"/>
+      <c r="B9" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="36"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="150" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="150"/>
+      <c r="B11" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="36"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="150" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="150"/>
+      <c r="B13" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="36"/>
+    </row>
+    <row r="14" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="E26" s="44"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="B34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C36" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>309</v>
+      </c>
+      <c r="B37" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -68321,7 +68910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
@@ -68648,7 +69237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
@@ -68896,7 +69485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
@@ -69221,7 +69810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -69505,19 +70094,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="9.625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="9.625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
     <col min="8" max="9" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -69540,10 +70131,10 @@
         <v>450</v>
       </c>
       <c r="H1" s="96" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="I1" s="96" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="J1" s="94"/>
       <c r="K1" s="95"/>
@@ -69587,7 +70178,7 @@
         <v>443</v>
       </c>
       <c r="H2" s="94" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I2" s="94"/>
       <c r="J2" s="95"/>
@@ -69617,7 +70208,7 @@
         <v>0.64166666666666672</v>
       </c>
       <c r="G3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -69628,13 +70219,13 @@
         <v>0.63472222222222219</v>
       </c>
       <c r="G4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -69642,7 +70233,20 @@
         <v>0.65069444444444446</v>
       </c>
       <c r="G5" t="s">
-        <v>491</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="D9" s="69">
+        <v>44930</v>
+      </c>
+      <c r="G9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="D13" s="69">
+        <v>44935</v>
       </c>
     </row>
   </sheetData>
@@ -69655,7 +70259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -69916,10 +70520,83 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F15"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -69929,7 +70606,7 @@
     <col min="3" max="3" width="12.375" style="101" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
     <col min="5" max="5" width="16.25" style="103" customWidth="1"/>
-    <col min="6" max="6" width="68.125" customWidth="1"/>
+    <col min="6" max="6" width="193.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -69937,10 +70614,10 @@
         <v>362</v>
       </c>
       <c r="B1" s="101" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C1" s="101" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D1" t="s">
         <v>364</v>
@@ -70138,7 +70815,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="102" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B14" s="101">
         <v>0</v>
@@ -70153,7 +70830,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="F14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -70173,7 +70850,87 @@
         <v>0.875</v>
       </c>
       <c r="F15" t="s">
-        <v>481</v>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -70182,7 +70939,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -70221,7 +70991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
@@ -70535,7 +71305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
@@ -71487,518 +72257,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="85.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.125" customWidth="1"/>
-    <col min="3" max="3" width="42.625" customWidth="1"/>
-    <col min="4" max="4" width="29.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="36"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
-        <v>317</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="36"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="C4" s="36"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="150"/>
-      <c r="B6" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="C6" s="36"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="150"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="150" t="s">
-        <v>306</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="150"/>
-      <c r="B9" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" s="36"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="150" t="s">
-        <v>305</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="150"/>
-      <c r="B11" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="C11" s="36"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="150" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="150"/>
-      <c r="B13" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="C13" s="36"/>
-    </row>
-    <row r="14" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>307</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="58" t="s">
-        <v>292</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="E31" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="63" t="s">
-        <v>272</v>
-      </c>
-      <c r="B34" t="s">
-        <v>267</v>
-      </c>
-      <c r="C34" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>268</v>
-      </c>
-      <c r="D35" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>309</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="C36" t="s">
-        <v>277</v>
-      </c>
-      <c r="D36" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>309</v>
-      </c>
-      <c r="B37" t="s">
-        <v>311</v>
-      </c>
-      <c r="C37" t="s">
-        <v>312</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>